--- a/Suppliers/file/suppliers/SiWuWu.xlsx
+++ b/Suppliers/file/suppliers/SiWuWu.xlsx
@@ -14037,7 +14037,7 @@
         <v>45253</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>8952.629999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
